--- a/3 - Proyecto/Deploy/Content/Archivos/Carga Masiva.xlsx
+++ b/3 - Proyecto/Deploy/Content/Archivos/Carga Masiva.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Mimet\MiLogistic\Despacho\3 - Proyecto\Despacho\WebApp\Content\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\David\Despacho\3 - Proyecto\Despacho\WebApp\Content\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CC130-6D89-4F47-94A6-871CD08888AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+FT2744KSyqe7vmkdncBS5u1MGTHTzZZ42KPNki1qkXNRAJL3sEj0hcKtqv4VgYgJm2pvsKE++hhQaKStGPo2Q==" workbookSaltValue="u6TrE+AE+rS+Bi9xBE3B2w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="CargaMasivaDetalle" sheetId="3" r:id="rId1"/>
@@ -1282,9 +1281,6 @@
     <t>AND00171384</t>
   </si>
   <si>
-    <t>AND00188682</t>
-  </si>
-  <si>
     <t>AND00189961</t>
   </si>
   <si>
@@ -1292,12 +1288,15 @@
   </si>
   <si>
     <t>Calor</t>
+  </si>
+  <si>
+    <t>1727960</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1436,67 +1435,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla4" displayName="Tabla4" ref="A1:R1562" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:R1562" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NumeroSolicitud" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TipoSolicitud" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FechaSolicitud" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FechaRecepcion" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NumeroCliente" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NombreCliente" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CalleDireccionCliente" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NumeroDireccionCliente" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="RegionCliente" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ComunaCliente" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NumeroTelefonoContacto" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="NumeroTelefonoContactoAdicional" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="RutCliente" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="UnidadNegocio" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Gerencia" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ObservacionAof" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Prioridad" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Placa" dataDxfId="0"/>
+    <tableColumn id="1" name="NumeroSolicitud" dataDxfId="17"/>
+    <tableColumn id="2" name="TipoSolicitud" dataDxfId="16"/>
+    <tableColumn id="3" name="FechaSolicitud" dataDxfId="15"/>
+    <tableColumn id="4" name="FechaRecepcion" dataDxfId="14"/>
+    <tableColumn id="5" name="NumeroCliente" dataDxfId="13"/>
+    <tableColumn id="6" name="NombreCliente" dataDxfId="12"/>
+    <tableColumn id="7" name="CalleDireccionCliente" dataDxfId="11"/>
+    <tableColumn id="8" name="NumeroDireccionCliente" dataDxfId="10"/>
+    <tableColumn id="9" name="RegionCliente" dataDxfId="9"/>
+    <tableColumn id="10" name="ComunaCliente" dataDxfId="8"/>
+    <tableColumn id="11" name="NumeroTelefonoContacto" dataDxfId="7"/>
+    <tableColumn id="12" name="NumeroTelefonoContactoAdicional" dataDxfId="6"/>
+    <tableColumn id="13" name="RutCliente" dataDxfId="5"/>
+    <tableColumn id="14" name="UnidadNegocio" dataDxfId="4"/>
+    <tableColumn id="15" name="Gerencia" dataDxfId="3"/>
+    <tableColumn id="16" name="ObservacionAof" dataDxfId="2"/>
+    <tableColumn id="17" name="Prioridad" dataDxfId="1"/>
+    <tableColumn id="18" name="Placa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla3" displayName="Tabla3" ref="B2:B7" totalsRowShown="0">
-  <autoFilter ref="B2:B7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B2:B7" totalsRowShown="0">
+  <autoFilter ref="B2:B7"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TiposSolicitud"/>
+    <tableColumn id="1" name="TiposSolicitud"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla1" displayName="Tabla1" ref="D2:D18" totalsRowShown="0">
-  <autoFilter ref="D2:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D2:D18" totalsRowShown="0">
+  <autoFilter ref="D2:D18"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Regiones"/>
+    <tableColumn id="1" name="Regiones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla2" displayName="Tabla2" ref="F2:G348" totalsRowShown="0">
-  <autoFilter ref="F2:G348" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="F2:G348" totalsRowShown="0">
+  <autoFilter ref="F2:G348"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Región"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Comuna"/>
+    <tableColumn id="1" name="Región"/>
+    <tableColumn id="2" name="Comuna"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla5" displayName="Tabla5" ref="I2:I5" totalsRowShown="0">
-  <autoFilter ref="I2:I5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="I2:I5" totalsRowShown="0">
+  <autoFilter ref="I2:I5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Prioridad"/>
+    <tableColumn id="1" name="Prioridad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1578,23 +1577,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1630,23 +1612,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1822,11 +1787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1812,7 @@
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1945,10 +1910,10 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O2" t="s">
         <v>415</v>
-      </c>
-      <c r="O2" t="s">
-        <v>416</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>13</v>
@@ -2008,8 +1973,8 @@
         <v>410</v>
       </c>
       <c r="Q3" s="2"/>
-      <c r="R3" t="s">
-        <v>413</v>
+      <c r="R3">
+        <v>1727960</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2037,7 +2002,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2060,8 +2025,8 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2">
-        <v>6587945</v>
+      <c r="R5" s="2" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -33239,12 +33204,11 @@
       <c r="R1562" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DzmAwbHExso01xE7re4SoZ+DYcpg67s5X9Zx3ECQviL2ASzqnTUGyJaviibBNKrmGispyFA6kUqXw4AE++9j3g==" saltValue="kOLhS/5gQHcTg6byryOY0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:R1048576" name="Tabla"/>
   </protectedRanges>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1562" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1562">
       <formula1>INDIRECT($I$2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -33256,19 +33220,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$3:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1562</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$3:$D$18</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1562</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$I$3:$I$5</xm:f>
           </x14:formula1>
@@ -33281,7 +33245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I348"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">

--- a/3 - Proyecto/Deploy/Content/Archivos/Carga Masiva.xlsx
+++ b/3 - Proyecto/Deploy/Content/Archivos/Carga Masiva.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\David\Despacho\3 - Proyecto\Despacho\WebApp\Content\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Mimet\MiLogistic\Despacho\3 - Proyecto\Deploy\Content\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC71EB9C-E808-4E4F-B05B-AB5331BA0E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+FT2744KSyqe7vmkdncBS5u1MGTHTzZZ42KPNki1qkXNRAJL3sEj0hcKtqv4VgYgJm2pvsKE++hhQaKStGPo2Q==" workbookSaltValue="u6TrE+AE+rS+Bi9xBE3B2w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CargaMasivaDetalle" sheetId="3" r:id="rId1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="398">
   <si>
     <t>TipoSolicitud</t>
   </si>
@@ -75,12 +76,6 @@
     <t>UnidadNegocio</t>
   </si>
   <si>
-    <t>Zona Norte</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
     <t>Todo Ok</t>
   </si>
   <si>
@@ -90,12 +85,6 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Cliente B</t>
-  </si>
-  <si>
-    <t>23456789-0</t>
-  </si>
-  <si>
     <t>NumeroSolicitud</t>
   </si>
   <si>
@@ -123,12 +112,6 @@
     <t>14735905-5</t>
   </si>
   <si>
-    <t>izquierda</t>
-  </si>
-  <si>
-    <t>no referida</t>
-  </si>
-  <si>
     <t>Calle</t>
   </si>
   <si>
@@ -1242,61 +1225,22 @@
     <t>987876409</t>
   </si>
   <si>
-    <t>6547895</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
-    <t>hoy</t>
-  </si>
-  <si>
-    <t>mañana</t>
-  </si>
-  <si>
-    <t>no me acuerdo</t>
-  </si>
-  <si>
-    <t>se me olvidó</t>
-  </si>
-  <si>
-    <t>que me voy a acordar</t>
-  </si>
-  <si>
-    <t>menos todavía</t>
-  </si>
-  <si>
-    <t>45789</t>
-  </si>
-  <si>
-    <t>2653</t>
-  </si>
-  <si>
-    <t>no interesa</t>
-  </si>
-  <si>
-    <t>256-8</t>
-  </si>
-  <si>
     <t>AND00171384</t>
   </si>
   <si>
-    <t>AND00189961</t>
-  </si>
-  <si>
     <t>Zona Sur</t>
   </si>
   <si>
     <t>Calor</t>
-  </si>
-  <si>
-    <t>1727960</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1435,67 +1379,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:R1562" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla4" displayName="Tabla4" ref="A1:R1562" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" name="NumeroSolicitud" dataDxfId="17"/>
-    <tableColumn id="2" name="TipoSolicitud" dataDxfId="16"/>
-    <tableColumn id="3" name="FechaSolicitud" dataDxfId="15"/>
-    <tableColumn id="4" name="FechaRecepcion" dataDxfId="14"/>
-    <tableColumn id="5" name="NumeroCliente" dataDxfId="13"/>
-    <tableColumn id="6" name="NombreCliente" dataDxfId="12"/>
-    <tableColumn id="7" name="CalleDireccionCliente" dataDxfId="11"/>
-    <tableColumn id="8" name="NumeroDireccionCliente" dataDxfId="10"/>
-    <tableColumn id="9" name="RegionCliente" dataDxfId="9"/>
-    <tableColumn id="10" name="ComunaCliente" dataDxfId="8"/>
-    <tableColumn id="11" name="NumeroTelefonoContacto" dataDxfId="7"/>
-    <tableColumn id="12" name="NumeroTelefonoContactoAdicional" dataDxfId="6"/>
-    <tableColumn id="13" name="RutCliente" dataDxfId="5"/>
-    <tableColumn id="14" name="UnidadNegocio" dataDxfId="4"/>
-    <tableColumn id="15" name="Gerencia" dataDxfId="3"/>
-    <tableColumn id="16" name="ObservacionAof" dataDxfId="2"/>
-    <tableColumn id="17" name="Prioridad" dataDxfId="1"/>
-    <tableColumn id="18" name="Placa" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NumeroSolicitud" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TipoSolicitud" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FechaSolicitud" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FechaRecepcion" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NumeroCliente" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NombreCliente" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CalleDireccionCliente" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NumeroDireccionCliente" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="RegionCliente" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ComunaCliente" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NumeroTelefonoContacto" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="NumeroTelefonoContactoAdicional" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="RutCliente" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="UnidadNegocio" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Gerencia" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ObservacionAof" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Prioridad" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Placa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B2:B7" totalsRowShown="0">
-  <autoFilter ref="B2:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla3" displayName="Tabla3" ref="B2:B7" totalsRowShown="0">
+  <autoFilter ref="B2:B7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="TiposSolicitud"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TiposSolicitud"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D2:D18" totalsRowShown="0">
-  <autoFilter ref="D2:D18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla1" displayName="Tabla1" ref="D2:D18" totalsRowShown="0">
+  <autoFilter ref="D2:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Regiones"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Regiones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="F2:G348" totalsRowShown="0">
-  <autoFilter ref="F2:G348"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla2" displayName="Tabla2" ref="F2:G348" totalsRowShown="0">
+  <autoFilter ref="F2:G348" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Región"/>
-    <tableColumn id="2" name="Comuna"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Región"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Comuna"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="I2:I5" totalsRowShown="0">
-  <autoFilter ref="I2:I5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla5" displayName="Tabla5" ref="I2:I5" totalsRowShown="0">
+  <autoFilter ref="I2:I5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Prioridad"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Prioridad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1577,6 +1521,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1612,6 +1573,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1787,11 +1765,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1795,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1835,25 +1813,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -1865,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>7</v>
@@ -1873,16 +1851,16 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>123</v>
@@ -1891,96 +1869,61 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
         <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="O2" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R2" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>410</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3">
-        <v>1727960</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>123</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1988,12 +1931,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -2001,14 +1940,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>456</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2025,62 +1959,30 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
-        <v>416</v>
-      </c>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>456</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2">
-        <v>456</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="2">
-        <v>3547895</v>
-      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>456</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2089,9 +1991,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2099,9 +1999,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
-        <v>400</v>
-      </c>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -33208,7 +33106,7 @@
     <protectedRange sqref="A2:R1048576" name="Tabla"/>
   </protectedRanges>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1562">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1562" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT($I$2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -33220,19 +33118,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Datos!$B$3:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1562</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Datos!$D$3:$D$18</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1562</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Datos!$I$3:$I$5</xm:f>
           </x14:formula1>
@@ -33245,7 +33143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I348"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -33265,2857 +33163,2857 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G50" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G58" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G65" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G66" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G68" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G69" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G70" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G71" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G72" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G73" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G74" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G75" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G77" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G78" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G79" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G80" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G82" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G83" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G84" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G85" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G87" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G88" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G89" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G93" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G94" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G97" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G98" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G99" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G101" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G102" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G103" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G104" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G105" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G106" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G110" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G111" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G112" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G113" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G115" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G116" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G117" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G118" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G119" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G120" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G121" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G122" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G123" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G124" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G125" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G126" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G127" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G128" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G129" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G130" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G131" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G132" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G133" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G134" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G135" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G136" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G137" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G138" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F139" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G139" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G140" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G141" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G142" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G143" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G144" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G145" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G146" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G147" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G148" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G149" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G150" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G151" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F152" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G152" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G153" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G154" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G155" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G156" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G157" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G158" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G159" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G160" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G161" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G162" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F163" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G163" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G164" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F165" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G165" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G166" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F167" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G167" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F168" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G168" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F169" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G169" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G170" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G171" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G172" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G173" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G174" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F175" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G175" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F176" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G176" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G177" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G178" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F179" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G179" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G180" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F181" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G181" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G182" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G183" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F184" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G184" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G185" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F186" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G186" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G187" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G188" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F189" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G189" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G190" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G191" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F192" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G192" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F193" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G193" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F194" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G194" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F195" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G195" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G196" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F197" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G197" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F198" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G198" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F199" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G199" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F200" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G200" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F201" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G201" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F202" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G202" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F203" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G203" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F204" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G204" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F205" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G205" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F206" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G206" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F207" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G207" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F208" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G208" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F209" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G209" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F210" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G210" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G211" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F212" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G212" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F213" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G213" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F214" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G214" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F215" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G215" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G216" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F217" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G217" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F218" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G218" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F219" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G219" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F220" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G220" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F221" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G221" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F222" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G222" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F223" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G223" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F224" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G224" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F225" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G225" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F226" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G226" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F227" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G227" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F228" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G228" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="229" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F229" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G229" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F230" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G230" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="231" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F231" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G231" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F232" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G232" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F233" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G233" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F234" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G234" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F235" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G235" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F236" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G236" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F237" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G237" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F238" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G238" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F239" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G239" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F240" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G240" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F241" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G241" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F242" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G242" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F243" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G243" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F244" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G244" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="245" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F245" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G245" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="246" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F246" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G246" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F247" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G247" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F248" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G248" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F249" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G249" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F250" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G250" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F251" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G251" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F252" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G252" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F253" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G253" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="254" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F254" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G254" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F255" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G255" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="256" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F256" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G256" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="257" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F257" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G257" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F258" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G258" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="259" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F259" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G259" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F260" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G260" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="261" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F261" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G261" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F262" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G262" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="263" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F263" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G263" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F264" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G264" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="265" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F265" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G265" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="266" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F266" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G266" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="267" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F267" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G267" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="268" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F268" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G268" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="269" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F269" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G269" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F270" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G270" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="271" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F271" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G271" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F272" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G272" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F273" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G273" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F274" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G274" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F275" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G275" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F276" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G276" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F277" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G277" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="278" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F278" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G278" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="279" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F279" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G279" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F280" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G280" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F281" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G281" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="282" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F282" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G282" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F283" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G283" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F284" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G284" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F285" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G285" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F286" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G286" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F287" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G287" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F288" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G288" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="289" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F289" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G289" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F290" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G290" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F291" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G291" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F292" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G292" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="293" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F293" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G293" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="294" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F294" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G294" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F295" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G295" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F296" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G296" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F297" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G297" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F298" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G298" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F299" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G299" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F300" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G300" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F301" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G301" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F302" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G302" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="303" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F303" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G303" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F304" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G304" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F305" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G305" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F306" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G306" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F307" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G307" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F308" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G308" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F309" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G309" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F310" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G310" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F311" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G311" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F312" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G312" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F313" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G313" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F314" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G314" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F315" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G315" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F316" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G316" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F317" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G317" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F318" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G318" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F319" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G319" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F320" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G320" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F321" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G321" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F322" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G322" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F323" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G323" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="324" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F324" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G324" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F325" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G325" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F326" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G326" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F327" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G327" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F328" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G328" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F329" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G329" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="330" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F330" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G330" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F331" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G331" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F332" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G332" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="333" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F333" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G333" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F334" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G334" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="335" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F335" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G335" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="336" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F336" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G336" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F337" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G337" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="338" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F338" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G338" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F339" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G339" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="340" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F340" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G340" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="341" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F341" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G341" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F342" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G342" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="343" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F343" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G343" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F344" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G344" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="345" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F345" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G345" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="346" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F346" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G346" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="347" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F347" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G347" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="348" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F348" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G348" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/3 - Proyecto/Deploy/Content/Archivos/Carga Masiva.xlsx
+++ b/3 - Proyecto/Deploy/Content/Archivos/Carga Masiva.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Mimet\MiLogistic\Despacho\3 - Proyecto\Deploy\Content\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\David\Despacho\3 - Proyecto\Despacho\WebApp\Content\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC71EB9C-E808-4E4F-B05B-AB5331BA0E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="+FT2744KSyqe7vmkdncBS5u1MGTHTzZZ42KPNki1qkXNRAJL3sEj0hcKtqv4VgYgJm2pvsKE++hhQaKStGPo2Q==" workbookSaltValue="u6TrE+AE+rS+Bi9xBE3B2w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="CargaMasivaDetalle" sheetId="3" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="417">
   <si>
     <t>TipoSolicitud</t>
   </si>
@@ -76,6 +75,12 @@
     <t>UnidadNegocio</t>
   </si>
   <si>
+    <t>Zona Norte</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
     <t>Todo Ok</t>
   </si>
   <si>
@@ -85,6 +90,12 @@
     <t>Alta</t>
   </si>
   <si>
+    <t>Cliente B</t>
+  </si>
+  <si>
+    <t>23456789-0</t>
+  </si>
+  <si>
     <t>NumeroSolicitud</t>
   </si>
   <si>
@@ -112,6 +123,12 @@
     <t>14735905-5</t>
   </si>
   <si>
+    <t>izquierda</t>
+  </si>
+  <si>
+    <t>no referida</t>
+  </si>
+  <si>
     <t>Calle</t>
   </si>
   <si>
@@ -1225,22 +1242,61 @@
     <t>987876409</t>
   </si>
   <si>
+    <t>6547895</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
+    <t>hoy</t>
+  </si>
+  <si>
+    <t>mañana</t>
+  </si>
+  <si>
+    <t>no me acuerdo</t>
+  </si>
+  <si>
+    <t>se me olvidó</t>
+  </si>
+  <si>
+    <t>que me voy a acordar</t>
+  </si>
+  <si>
+    <t>menos todavía</t>
+  </si>
+  <si>
+    <t>45789</t>
+  </si>
+  <si>
+    <t>2653</t>
+  </si>
+  <si>
+    <t>no interesa</t>
+  </si>
+  <si>
+    <t>256-8</t>
+  </si>
+  <si>
     <t>AND00171384</t>
   </si>
   <si>
+    <t>AND00189961</t>
+  </si>
+  <si>
     <t>Zona Sur</t>
   </si>
   <si>
     <t>Calor</t>
+  </si>
+  <si>
+    <t>1727960</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1379,67 +1435,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla4" displayName="Tabla4" ref="A1:R1562" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:R1562" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NumeroSolicitud" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TipoSolicitud" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FechaSolicitud" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FechaRecepcion" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NumeroCliente" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="NombreCliente" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CalleDireccionCliente" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NumeroDireccionCliente" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="RegionCliente" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ComunaCliente" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NumeroTelefonoContacto" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="NumeroTelefonoContactoAdicional" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="RutCliente" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="UnidadNegocio" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Gerencia" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="ObservacionAof" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Prioridad" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Placa" dataDxfId="0"/>
+    <tableColumn id="1" name="NumeroSolicitud" dataDxfId="17"/>
+    <tableColumn id="2" name="TipoSolicitud" dataDxfId="16"/>
+    <tableColumn id="3" name="FechaSolicitud" dataDxfId="15"/>
+    <tableColumn id="4" name="FechaRecepcion" dataDxfId="14"/>
+    <tableColumn id="5" name="NumeroCliente" dataDxfId="13"/>
+    <tableColumn id="6" name="NombreCliente" dataDxfId="12"/>
+    <tableColumn id="7" name="CalleDireccionCliente" dataDxfId="11"/>
+    <tableColumn id="8" name="NumeroDireccionCliente" dataDxfId="10"/>
+    <tableColumn id="9" name="RegionCliente" dataDxfId="9"/>
+    <tableColumn id="10" name="ComunaCliente" dataDxfId="8"/>
+    <tableColumn id="11" name="NumeroTelefonoContacto" dataDxfId="7"/>
+    <tableColumn id="12" name="NumeroTelefonoContactoAdicional" dataDxfId="6"/>
+    <tableColumn id="13" name="RutCliente" dataDxfId="5"/>
+    <tableColumn id="14" name="UnidadNegocio" dataDxfId="4"/>
+    <tableColumn id="15" name="Gerencia" dataDxfId="3"/>
+    <tableColumn id="16" name="ObservacionAof" dataDxfId="2"/>
+    <tableColumn id="17" name="Prioridad" dataDxfId="1"/>
+    <tableColumn id="18" name="Placa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla3" displayName="Tabla3" ref="B2:B7" totalsRowShown="0">
-  <autoFilter ref="B2:B7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B2:B7" totalsRowShown="0">
+  <autoFilter ref="B2:B7"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TiposSolicitud"/>
+    <tableColumn id="1" name="TiposSolicitud"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla1" displayName="Tabla1" ref="D2:D18" totalsRowShown="0">
-  <autoFilter ref="D2:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D2:D18" totalsRowShown="0">
+  <autoFilter ref="D2:D18"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Regiones"/>
+    <tableColumn id="1" name="Regiones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla2" displayName="Tabla2" ref="F2:G348" totalsRowShown="0">
-  <autoFilter ref="F2:G348" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="F2:G348" totalsRowShown="0">
+  <autoFilter ref="F2:G348"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Región"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Comuna"/>
+    <tableColumn id="1" name="Región"/>
+    <tableColumn id="2" name="Comuna"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla5" displayName="Tabla5" ref="I2:I5" totalsRowShown="0">
-  <autoFilter ref="I2:I5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="I2:I5" totalsRowShown="0">
+  <autoFilter ref="I2:I5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Prioridad"/>
+    <tableColumn id="1" name="Prioridad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1521,23 +1577,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1573,23 +1612,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1765,11 +1787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1817,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1813,25 +1835,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -1843,7 +1865,7 @@
         <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>7</v>
@@ -1851,16 +1873,16 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2">
         <v>123</v>
@@ -1869,61 +1891,96 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2">
         <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="O2" t="s">
+        <v>415</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="Q3" s="2"/>
+      <c r="R3">
+        <v>1727960</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>123</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1931,8 +1988,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1940,9 +2001,14 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
+      <c r="R4" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>456</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1959,30 +2025,62 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2">
+        <v>456</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
+        <v>456</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3547895</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>456</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1991,7 +2089,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1999,7 +2099,9 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -33106,7 +33208,7 @@
     <protectedRange sqref="A2:R1048576" name="Tabla"/>
   </protectedRanges>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1562" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J1562">
       <formula1>INDIRECT($I$2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -33118,19 +33220,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$3:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1562</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$3:$D$18</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1562</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$I$3:$I$5</xm:f>
           </x14:formula1>
@@ -33143,7 +33245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I348"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -33163,2857 +33265,2857 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G51" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G62" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G64" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G65" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G67" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G68" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G70" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G71" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G72" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G74" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G76" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G79" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G81" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G82" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G85" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G86" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G88" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G89" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G90" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G91" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G92" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G93" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G96" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G97" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G100" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G101" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G102" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G103" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G104" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G105" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G106" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G108" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G109" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G110" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G111" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G112" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G113" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G114" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G116" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G117" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G118" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G119" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G120" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G121" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G122" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G123" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G124" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G125" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G126" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G127" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G128" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G129" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G130" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G131" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G132" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G133" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G134" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G135" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G136" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G137" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G138" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F139" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G139" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G140" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G141" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G142" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G143" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G144" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G145" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G146" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G147" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G148" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G149" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G150" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G151" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F152" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G152" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G153" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="154" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G154" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G155" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G156" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G157" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G158" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G159" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G160" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G161" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G162" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F163" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G163" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G164" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="165" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F165" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G165" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G166" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="167" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F167" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G167" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F168" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G168" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F169" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G169" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G170" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G171" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G172" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G173" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G174" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F175" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G175" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F176" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G176" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G177" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G178" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="179" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F179" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G179" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G180" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F181" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G181" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G182" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G183" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F184" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G184" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G185" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="186" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F186" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G186" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="187" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G187" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G188" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="189" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F189" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G189" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G190" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G191" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F192" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G192" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="193" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F193" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G193" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="194" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F194" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G194" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="195" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F195" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G195" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="196" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G196" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F197" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G197" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="198" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F198" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G198" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F199" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G199" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="200" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F200" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G200" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="201" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F201" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G201" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F202" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G202" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="203" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F203" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G203" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="204" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F204" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G204" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F205" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G205" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="206" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F206" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G206" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F207" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G207" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="208" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F208" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G208" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F209" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G209" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="210" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F210" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G210" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="211" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G211" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="212" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F212" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G212" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="213" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F213" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G213" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F214" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G214" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="215" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F215" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G215" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G216" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="217" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F217" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G217" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="218" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F218" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G218" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F219" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G219" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="220" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F220" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G220" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="221" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F221" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G221" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F222" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G222" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F223" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G223" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="224" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F224" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G224" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="225" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F225" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G225" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="226" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F226" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G226" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="227" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F227" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G227" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="228" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F228" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G228" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="229" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F229" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G229" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="230" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F230" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G230" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="231" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F231" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G231" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="232" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F232" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G232" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F233" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G233" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="234" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F234" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G234" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="235" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F235" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G235" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="236" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F236" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G236" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="237" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F237" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G237" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="238" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F238" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G238" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="239" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F239" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G239" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F240" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G240" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F241" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G241" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F242" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G242" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F243" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G243" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F244" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G244" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F245" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G245" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F246" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G246" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="247" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F247" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G247" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="248" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F248" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G248" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="249" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F249" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G249" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="250" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F250" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G250" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="251" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F251" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G251" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="252" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F252" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G252" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="253" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F253" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G253" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="254" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F254" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G254" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="255" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F255" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G255" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="256" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F256" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G256" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="257" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F257" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G257" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="258" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F258" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G258" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="259" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F259" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G259" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="260" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F260" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G260" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="261" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F261" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G261" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="262" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F262" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G262" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="263" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F263" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G263" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="264" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F264" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G264" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="265" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F265" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G265" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="266" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F266" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G266" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="267" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F267" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G267" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="268" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F268" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G268" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="269" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F269" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G269" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F270" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G270" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="271" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F271" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G271" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="272" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F272" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G272" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="273" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F273" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G273" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="274" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F274" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G274" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F275" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G275" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="276" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F276" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G276" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="277" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F277" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G277" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F278" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G278" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="279" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F279" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G279" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F280" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G280" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F281" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G281" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F282" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G282" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="283" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F283" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G283" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="284" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F284" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G284" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="285" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F285" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G285" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F286" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G286" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="287" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F287" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G287" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="288" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F288" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G288" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="289" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F289" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G289" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="290" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F290" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G290" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="291" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F291" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G291" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="292" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F292" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G292" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="293" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F293" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G293" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="294" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F294" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G294" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="295" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F295" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G295" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="296" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F296" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G296" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="297" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F297" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G297" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="298" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F298" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G298" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="299" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F299" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G299" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="300" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F300" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G300" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F301" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G301" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="302" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F302" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G302" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="303" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F303" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G303" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="304" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F304" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G304" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="305" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F305" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G305" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="306" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F306" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G306" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="307" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F307" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G307" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="308" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F308" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G308" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="309" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F309" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G309" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F310" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G310" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="311" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F311" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G311" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="312" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F312" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G312" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F313" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G313" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="314" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F314" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G314" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="315" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F315" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G315" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="316" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F316" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G316" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="317" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F317" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G317" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="318" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F318" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G318" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="319" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F319" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G319" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="320" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F320" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G320" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="321" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F321" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G321" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="322" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F322" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G322" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="323" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F323" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G323" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="324" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F324" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G324" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="325" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F325" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G325" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="326" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F326" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G326" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="327" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F327" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G327" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="328" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F328" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G328" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="329" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F329" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G329" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="330" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F330" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G330" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F331" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G331" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="332" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F332" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G332" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="333" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F333" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G333" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="334" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F334" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G334" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="335" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F335" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G335" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="336" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F336" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G336" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="337" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F337" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G337" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="338" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F338" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G338" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F339" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G339" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="340" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F340" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G340" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="341" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F341" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G341" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="342" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F342" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G342" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="343" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F343" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G343" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="344" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F344" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G344" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="345" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F345" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G345" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="346" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F346" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G346" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="347" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F347" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G347" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="348" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F348" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G348" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
